--- a/MANAGER/Excel_template/Download/kinh-phi-tong-hop.xlsx
+++ b/MANAGER/Excel_template/Download/kinh-phi-tong-hop.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>CHI PHÍ TỔ CHỨC</t>
   </si>
@@ -46,37 +46,14 @@
   </si>
   <si>
     <t>GHI CHÚ</t>
-  </si>
-  <si>
-    <t>Đai học FPT HN cơ sở 1</t>
-  </si>
-  <si>
-    <t>tiền trợ cấp</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>chi phí di chuyển</t>
-  </si>
-  <si>
-    <t>tiền giải thưởng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đại học FPT Greenwich </t>
-  </si>
-  <si>
-    <t>tiền ăn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="###,###,##0"/>
-  </numFmts>
-  <fonts count="4">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,26 +75,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3" tint="0"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -155,8 +119,6 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D7B4D3-7D0E-494F-9F06-97DB53F84492}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -516,131 +478,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4">
-        <v>5000000</v>
-      </c>
-      <c r="D4" s="4">
-        <v>5000000</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>2</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4">
-        <v>14400000</v>
-      </c>
-      <c r="D5" s="4">
-        <v>9890000</v>
-      </c>
-      <c r="E5" s="4">
-        <v>-4510000</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>3</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4">
-        <v>42000000</v>
-      </c>
-      <c r="D6" s="4">
-        <v>42000000</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>1</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="4">
-        <v>7500000</v>
-      </c>
-      <c r="D8" s="4">
-        <v>7500000</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
